--- a/src/分类sku/demo.xlsx
+++ b/src/分类sku/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\sci\src\分类sku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F4AD0A-E1E0-4237-B98F-605CDB6BF9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00618C-F37F-403C-AD00-CF340F84E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="5778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10335" uniqueCount="5877">
   <si>
     <t>name</t>
   </si>
@@ -17362,6 +17362,303 @@
   </si>
   <si>
     <t>苹果30W+苹果16【C-C】编织线【套装】30W快充头+2米线</t>
+  </si>
+  <si>
+    <t>足功率 【100W闪充头+2米线】</t>
+  </si>
+  <si>
+    <t>全系100w头【A+C】-100w,笔记本线【C-C】-2米</t>
+  </si>
+  <si>
+    <t>OPPO【30W】【头+1米线+2米线】</t>
+  </si>
+  <si>
+    <t>OP30w头-22.5w,OP白口线【USB】-1米,OP白口线【USB】-2米</t>
+  </si>
+  <si>
+    <t>足功率【100W闪充头+2米线】</t>
+  </si>
+  <si>
+    <t>9-1619笔记本线【C-C】2米双头TYPEC数据线</t>
+  </si>
+  <si>
+    <t>OPPO绿口闪充线【2米线+2米线】</t>
+  </si>
+  <si>
+    <t>OP绿口线【USB】-2米,OP绿口线【USB】-2米</t>
+  </si>
+  <si>
+    <t>华66双口头【66W快充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>笔记本65W【套装】快充头+1米线</t>
+  </si>
+  <si>
+    <t>平果15编织线【C-C】【1.5米】苹果16全系列30W编织线</t>
+  </si>
+  <si>
+    <t>足功率【120W闪充头+1米线】</t>
+  </si>
+  <si>
+    <t>全系120w头【A+C】-120w,笔记本线【C-C】-1米</t>
+  </si>
+  <si>
+    <t>笔记本65W【单头】快充头</t>
+  </si>
+  <si>
+    <t>华5A紫口线1.5米闪充数据线</t>
+  </si>
+  <si>
+    <t>华6A线【C-C】【双TYPE-C口】闪充线1米</t>
+  </si>
+  <si>
+    <t>平果PD线【1米】苹果8-14全系列专用</t>
+  </si>
+  <si>
+    <t>足功率【120W闪充头】</t>
+  </si>
+  <si>
+    <t>华66双口头【66W快充头+2米线】</t>
+  </si>
+  <si>
+    <t>三星 【45W快充头+1米线+2米线】</t>
+  </si>
+  <si>
+    <t>3星线【c-c】-1米,3星线【c-c】-2米,SAM星45W头-22.5w</t>
+  </si>
+  <si>
+    <t>足功率【100W闪充头单头】</t>
+  </si>
+  <si>
+    <t>5V2A白头+安卓线2A充电头+安卓线1米【套装】</t>
+  </si>
+  <si>
+    <t>主推数据线VIVO快充线|1.5米线(两条)</t>
+  </si>
+  <si>
+    <t>三星 【45W快充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>3星线【c-c】-1.5米,SAM星45W头-22.5w</t>
+  </si>
+  <si>
+    <t>一加 【80W闪充头单头】</t>
+  </si>
+  <si>
+    <t>华66双口头 【66W快充头+1.5米线+2米线】</t>
+  </si>
+  <si>
+    <t>华6a线-1.5米,华6a线-2米,华66w双口头【A+C】-25w</t>
+  </si>
+  <si>
+    <t>一加 【80W闪充头+2米线】</t>
+  </si>
+  <si>
+    <t>一加 【80W闪充头+1米线】</t>
+  </si>
+  <si>
+    <t>足功率 【120W闪充头+1米线】</t>
+  </si>
+  <si>
+    <t>华MAX原IC头G【100W快充头+1.5米线+2米线】</t>
+  </si>
+  <si>
+    <t>华5A紫口线1米闪充数据线</t>
+  </si>
+  <si>
+    <t>米小布丁套装120W快充头+2米线</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头+1米线+1.5米线】</t>
+  </si>
+  <si>
+    <t>OP100w头-22.5w,一嘉65W红线【C-C】-1米,一嘉红线【USB-C】-1.5米</t>
+  </si>
+  <si>
+    <t>苹果30W+【C-C】编制线【套装】30W快充头+1.5米线</t>
+  </si>
+  <si>
+    <t>平果15编织线【C-C】-1.5米,苹果PD30w头-30w</t>
+  </si>
+  <si>
+    <t>OPPO 【67W闪充头+1米线】</t>
+  </si>
+  <si>
+    <t>华MAX原IC头G【100W快充头+1米线+1.5米线】</t>
+  </si>
+  <si>
+    <t>华6a线-1.5米,华6a线-1米,华max100w原IC头G-40w</t>
+  </si>
+  <si>
+    <t>平果15编织线【C-C】【1.5米】IPAD11快充编织线</t>
+  </si>
+  <si>
+    <t>5V2A白头+安卓线2A充电头+安卓线2米【套装】</t>
+  </si>
+  <si>
+    <t>MAX40W大壳头G【套装】40W超级闪充头+1.5米线</t>
+  </si>
+  <si>
+    <t>OPPO8A闪充线【1.5米线+2米线】</t>
+  </si>
+  <si>
+    <t>米6A线全兼容闪充数据线2米</t>
+  </si>
+  <si>
+    <t>华为主推G65W笔记本平板头+1.5米双C线</t>
+  </si>
+  <si>
+    <t>3星线【C-C】25W双C线【1米线+1.5米线】</t>
+  </si>
+  <si>
+    <t>3星线【c-c】-1.5米,3星线【c-c】-1米</t>
+  </si>
+  <si>
+    <t>爆款数据线小米金标快充线|1米线(一条)</t>
+  </si>
+  <si>
+    <t>华MAX原IC头G 【100W快充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>华66双口头 【66W快充头+2米线】</t>
+  </si>
+  <si>
+    <t>OPPO 【80W闪充头+2米线】</t>
+  </si>
+  <si>
+    <t>华66w双口头【A+C】-25w,华6a线-1.5米,华6a线-2米</t>
+  </si>
+  <si>
+    <t>荣MAX【88W快充头单头】</t>
+  </si>
+  <si>
+    <t>华6A线 6A线【1米线】</t>
+  </si>
+  <si>
+    <t>3星线【C-C】双C快充线【1米线+1.5米线】</t>
+  </si>
+  <si>
+    <t>华5A紫口线2米闪充数据线</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头单头】</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头+2米线】</t>
+  </si>
+  <si>
+    <t>华66双口头【66W快充头+1.5米线+2米线】</t>
+  </si>
+  <si>
+    <t>华MAX原IC头G【100W快充头+1米线+2米线】</t>
+  </si>
+  <si>
+    <t>爆款数据线小米快充线|1米线(一条)</t>
+  </si>
+  <si>
+    <t>OPPO 10A闪充线【1.5米线】</t>
+  </si>
+  <si>
+    <t>OPPO 10A闪充线【2米线】</t>
+  </si>
+  <si>
+    <t>华为主推G全兼容1.5米超级快充线6A</t>
+  </si>
+  <si>
+    <t>华88W双口头G【A+C】【套装】闪充头+1米线</t>
+  </si>
+  <si>
+    <t>华MAX原IC头G 【100W快充头+1米线】</t>
+  </si>
+  <si>
+    <t>V普通安卓接口线2米安卓通用梯形接口线</t>
+  </si>
+  <si>
+    <t>MAX40W大壳头G【套装】40W超级闪充头+1米线</t>
+  </si>
+  <si>
+    <t>苹果笔记本充电器套装45W-T型接口【】快充不伤机</t>
+  </si>
+  <si>
+    <t>荣MAX 66W快充头+1米线+2米线</t>
+  </si>
+  <si>
+    <t>VO【33W闪充头一个】</t>
+  </si>
+  <si>
+    <t>一加 【80W闪充头+1米线+1.5米线】</t>
+  </si>
+  <si>
+    <t>OP80w头-22.5w,一嘉红线【USB-C】-1.5米,一嘉红线【USB-C】-1米</t>
+  </si>
+  <si>
+    <t>华66W双口头G【A+C】【套装】66W快充头+1米数据线</t>
+  </si>
+  <si>
+    <t>米6A金标线【1米线+2米线】</t>
+  </si>
+  <si>
+    <t>苹果笔记本充电器套装45W-L型接口【】快充不伤机</t>
+  </si>
+  <si>
+    <t>荣MAX【88W快充头+1米线】</t>
+  </si>
+  <si>
+    <t>华66双口头【66W快充头+1米线】</t>
+  </si>
+  <si>
+    <t>华66双口头【66W快充头单头】</t>
+  </si>
+  <si>
+    <t>爆款数据线OPPO超级闪充线|1.5米线(一条)</t>
+  </si>
+  <si>
+    <t>VO120W线【USB-C】6A闪充线【1米线+2米线】</t>
+  </si>
+  <si>
+    <t>三星 【45W快充头单头】</t>
+  </si>
+  <si>
+    <t>VO【66W闪充头一个】</t>
+  </si>
+  <si>
+    <t>一嘉红线【USB-C】2条一加7/8系列闪充线【1.5米+2米】搭配装</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头+1米线】</t>
+  </si>
+  <si>
+    <t>华66双口头 【66W快充头单头】</t>
+  </si>
+  <si>
+    <t>苹果30W+【C-C】编制线【套装】30W快充头+1米线</t>
+  </si>
+  <si>
+    <t>平果15编织线【C-C】-1米,苹果PD30w头-30w</t>
+  </si>
+  <si>
+    <t>MAX40W大壳头G【套装】40W闪充头+1.5米线</t>
+  </si>
+  <si>
+    <t>5V2A白头+安卓线2A充电头+安卓线1.5米【套装】</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>足功率 【100W闪充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>OPPO 【67W闪充头+1.5米线】</t>
+  </si>
+  <si>
+    <t>华6A线6A充电线1米</t>
+  </si>
+  <si>
+    <t>一加 【100W闪充头+1米线+2米线】</t>
+  </si>
+  <si>
+    <t>爆款数据线VIVO双TPC快充线|1.5米线(一条)</t>
   </si>
 </sst>
 </file>
@@ -17687,10 +17984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4414"/>
+  <dimension ref="A1:B4499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A4470" workbookViewId="0">
+      <selection activeCell="A4482" sqref="A4482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52957,58 +53254,738 @@
     </row>
     <row r="4408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4408" t="s">
-        <v>821</v>
+        <v>5772</v>
       </c>
       <c r="B4408" t="s">
-        <v>3576</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="4409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4409" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="B4409" t="s">
-        <v>3704</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="4410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4410" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="B4410" t="s">
-        <v>4048</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="4411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4411" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="B4411" t="s">
-        <v>3714</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="4412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4412" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="B4412" t="s">
-        <v>3707</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="4413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4413" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="B4413" t="s">
-        <v>3476</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="4414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4414" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="B4414" t="s">
-        <v>3594</v>
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4415" t="s">
+        <v>5780</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4416" t="s">
+        <v>5782</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4417" t="s">
+        <v>5783</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4418" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4419" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4420" t="s">
+        <v>5787</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4421" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4422" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4423" t="s">
+        <v>5791</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4424" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4425" t="s">
+        <v>5793</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4426" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4427" t="s">
+        <v>5795</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4428" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4429" t="s">
+        <v>5797</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4430" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4431" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4432" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4433" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4434" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4435" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4436" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4437" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4438" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4439" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4440" t="s">
+        <v>5811</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4441" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4442" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4443" t="s">
+        <v>5815</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4444" t="s">
+        <v>5817</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4445" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4446" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4447" t="s">
+        <v>5821</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4448" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4449" t="s">
+        <v>5823</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4450" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4451" t="s">
+        <v>5825</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4452" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4453" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4454" t="s">
+        <v>5829</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4455" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4456" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4457" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4458" t="s">
+        <v>5833</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4459" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4460" t="s">
+        <v>5835</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4461" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4462" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4463" t="s">
+        <v>5838</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4464" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4465" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4466" t="s">
+        <v>5841</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4467" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B4467" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4468" t="s">
+        <v>5843</v>
+      </c>
+      <c r="B4468" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4469" t="s">
+        <v>5844</v>
+      </c>
+      <c r="B4469" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4470" t="s">
+        <v>5845</v>
+      </c>
+      <c r="B4470" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4471" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B4471" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4472" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B4472" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4473" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B4473" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4474" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B4474" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4475" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B4475" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4476" t="s">
+        <v>5851</v>
+      </c>
+      <c r="B4476" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4477" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B4477" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4478" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B4478" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4479" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B4479" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4480" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B4480" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4481" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B4481" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4482" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4483" t="s">
+        <v>5859</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4484" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4485" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4486" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4487" t="s">
+        <v>5863</v>
+      </c>
+      <c r="B4487" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4488" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4489" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4490" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4491" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4492" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4493" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4494" t="s">
+        <v>5871</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4495" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B4495" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4496" t="s">
+        <v>5873</v>
+      </c>
+      <c r="B4496" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4497" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B4497" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4498" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B4498" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4499" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B4499" t="s">
+        <v>3748</v>
       </c>
     </row>
   </sheetData>

--- a/src/分类sku/demo.xlsx
+++ b/src/分类sku/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\sci\src\分类sku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8A07C6-3DCF-4145-9666-BE19B7424BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0645761-AB23-451D-A4EA-2B542FF0604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19479" uniqueCount="5972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19479" uniqueCount="5973">
   <si>
     <t>name</t>
   </si>
@@ -17961,6 +17959,10 @@
   </si>
   <si>
     <t>数据线,充电头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18289,13 +18291,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D4494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3814" workbookViewId="0">
-      <selection activeCell="A3833" sqref="A3833"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="82.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.875" customWidth="1"/>
     <col min="2" max="2" width="51.125" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -20496,7 +20498,7 @@
         <v>5963</v>
       </c>
       <c r="D157" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -23814,7 +23816,7 @@
         <v>5964</v>
       </c>
       <c r="D394" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -23828,7 +23830,7 @@
         <v>5964</v>
       </c>
       <c r="D395" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -23842,7 +23844,7 @@
         <v>5964</v>
       </c>
       <c r="D396" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -23856,7 +23858,7 @@
         <v>5964</v>
       </c>
       <c r="D397" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -23870,7 +23872,7 @@
         <v>5964</v>
       </c>
       <c r="D398" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -23884,7 +23886,7 @@
         <v>5964</v>
       </c>
       <c r="D399" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -23898,7 +23900,7 @@
         <v>5964</v>
       </c>
       <c r="D400" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -24500,7 +24502,7 @@
         <v>5963</v>
       </c>
       <c r="D443" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -24514,7 +24516,7 @@
         <v>5963</v>
       </c>
       <c r="D444" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -24528,7 +24530,7 @@
         <v>5963</v>
       </c>
       <c r="D445" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -24542,7 +24544,7 @@
         <v>5963</v>
       </c>
       <c r="D446" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -24780,7 +24782,7 @@
         <v>5963</v>
       </c>
       <c r="D463" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -24794,7 +24796,7 @@
         <v>5963</v>
       </c>
       <c r="D464" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -25116,7 +25118,7 @@
         <v>5963</v>
       </c>
       <c r="D487" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -25130,7 +25132,7 @@
         <v>5963</v>
       </c>
       <c r="D488" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -49826,7 +49828,7 @@
         <v>5963</v>
       </c>
       <c r="D2252" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2253" spans="1:4" x14ac:dyDescent="0.2">
@@ -52122,7 +52124,7 @@
         <v>5970</v>
       </c>
       <c r="D2416" t="s">
-        <v>3118</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2417" spans="1:4" x14ac:dyDescent="0.2">
@@ -52136,7 +52138,7 @@
         <v>5970</v>
       </c>
       <c r="D2417" t="s">
-        <v>3118</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2418" spans="1:4" x14ac:dyDescent="0.2">
@@ -52150,7 +52152,7 @@
         <v>5970</v>
       </c>
       <c r="D2418" t="s">
-        <v>3118</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2419" spans="1:4" x14ac:dyDescent="0.2">
@@ -53984,7 +53986,7 @@
         <v>5963</v>
       </c>
       <c r="D2549" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2550" spans="1:4" x14ac:dyDescent="0.2">
@@ -54012,7 +54014,7 @@
         <v>5963</v>
       </c>
       <c r="D2551" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2552" spans="1:4" x14ac:dyDescent="0.2">
@@ -54852,7 +54854,7 @@
         <v>5963</v>
       </c>
       <c r="D2611" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2612" spans="1:4" x14ac:dyDescent="0.2">
@@ -55734,7 +55736,7 @@
         <v>5963</v>
       </c>
       <c r="D2674" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="2675" spans="1:4" x14ac:dyDescent="0.2">
@@ -65912,7 +65914,7 @@
         <v>5963</v>
       </c>
       <c r="D3401" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3402" spans="1:4" x14ac:dyDescent="0.2">
@@ -66066,7 +66068,7 @@
         <v>5964</v>
       </c>
       <c r="D3412" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3413" spans="1:4" x14ac:dyDescent="0.2">
@@ -66080,7 +66082,7 @@
         <v>5964</v>
       </c>
       <c r="D3413" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3414" spans="1:4" x14ac:dyDescent="0.2">
@@ -66094,7 +66096,7 @@
         <v>5964</v>
       </c>
       <c r="D3414" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3415" spans="1:4" x14ac:dyDescent="0.2">
@@ -69384,7 +69386,7 @@
         <v>5963</v>
       </c>
       <c r="D3649" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3650" spans="1:4" x14ac:dyDescent="0.2">
@@ -69594,7 +69596,7 @@
         <v>5963</v>
       </c>
       <c r="D3664" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3665" spans="1:4" x14ac:dyDescent="0.2">
@@ -70168,7 +70170,7 @@
         <v>5964</v>
       </c>
       <c r="D3705" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3706" spans="1:4" x14ac:dyDescent="0.2">
@@ -71358,7 +71360,7 @@
         <v>5963</v>
       </c>
       <c r="D3790" t="s">
-        <v>5957</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="3791" spans="1:4" x14ac:dyDescent="0.2">
@@ -74858,7 +74860,7 @@
         <v>5963</v>
       </c>
       <c r="D4040" t="s">
-        <v>3118</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="4041" spans="1:4" x14ac:dyDescent="0.2">
@@ -78106,7 +78108,7 @@
         <v>5961</v>
       </c>
       <c r="D4272" t="s">
-        <v>3118</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="4273" spans="1:4" x14ac:dyDescent="0.2">
